--- a/spring-excel/src/main/resources/test.xlsx
+++ b/spring-excel/src/main/resources/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30020" windowHeight="16260"/>
+    <workbookView windowHeight="16180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
   <si>
     <t>项目code</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>创建时间</t>
+  </si>
+  <si>
+    <t>测试</t>
   </si>
   <si>
     <t>zhjt1493</t>
@@ -255,10 +258,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -282,64 +285,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,37 +302,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,13 +352,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -434,31 +437,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,19 +569,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,121 +605,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,11 +625,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,27 +655,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -676,22 +668,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,153 +696,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1194,19 +1197,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="18.2946428571429" customWidth="1"/>
     <col min="3" max="3" width="28.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1216,872 +1219,1112 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
         <v>44000.8054976852</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2">
         <v>44000.8054976852</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
         <v>44000.8054976852</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
         <v>44000.8054976852</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2">
         <v>44000.8054976852</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2">
         <v>44000.8054976852</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2">
         <v>44000.8054976852</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2">
         <v>44000.8054976852</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44000.8055092593</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2">
-        <v>44000.8055092593</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
         <v>44000.8055092593</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2">
         <v>44000.8055092593</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2">
         <v>44000.8055092593</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44000.8055092593</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2">
-        <v>44000.8055092593</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44000.8055092593</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44000.8055092593</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44000.8055092593</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44000.8055092593</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44000.8055092593</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44000.8055092593</v>
+      </c>
+      <c r="D20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44000.8055092593</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2">
-        <v>44000.8055092593</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2">
-        <v>44000.8055092593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="2">
-        <v>44000.8055092593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="2">
-        <v>44000.8055092593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="2">
-        <v>44000.8055092593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="2">
-        <v>44000.8055092593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="2">
-        <v>44000.8055092593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C22" s="2">
         <v>44000.8055092593</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2">
         <v>44000.8055092593</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44000.8055092593</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="2">
-        <v>44000.8055092593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2">
         <v>44000.8055092593</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="2">
         <v>44000.8055092593</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" s="2">
         <v>44000.8055092593</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2">
         <v>44000.8055092593</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" s="2">
         <v>44000.8055092593</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44000.8055092593</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="2">
-        <v>44000.8055092593</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="2">
         <v>44000.8055092593</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="2">
         <v>44000.8055092593</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="2">
+        <v>44000.8055092593</v>
+      </c>
+      <c r="D33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="2">
-        <v>44000.8055092593</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="B34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" s="2">
         <v>44000.8055092593</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" s="2">
         <v>44000.8055092593</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" s="2">
         <v>44000.8055092593</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" s="2">
         <v>44000.8055092593</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" s="2">
         <v>44000.8055092593</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" s="2">
         <v>44000.8055208333</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40" s="2">
         <v>44000.8055208333</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C41" s="2">
         <v>44000.8055208333</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2">
         <v>44000.8055208333</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" s="2">
         <v>44000.8055208333</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44" s="2">
         <v>44000.8055208333</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45" s="2">
         <v>44000.8055208333</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2">
         <v>44011.5943287037</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2">
         <v>44011.5952430556</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C48" s="2">
         <v>44011.5959490741</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" s="2">
         <v>44011.5966666667</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50" s="2">
         <v>44247.7217361111</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2">
         <v>44247.7326967593</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2">
         <v>44247.7339236111</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2">
         <v>44249.6485069444</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2">
         <v>44249.651400463</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2">
         <v>44249.6530671296</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2">
         <v>44249.6546759259</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2">
         <v>44249.6605555556</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2">
         <v>44249.6616550926</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2">
         <v>44249.6627662037</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2">
         <v>44264.6266898148</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2">
         <v>44264.6266898148</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2">
         <v>44264.6266898148</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2">
         <v>44264.6266898148</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C64" s="2">
         <v>44264.6266898148</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2">
         <v>44264.6266898148</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" s="2">
         <v>44264.6266898148</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C67" s="2">
         <v>44264.6266898148</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" s="2">
         <v>44264.6266898148</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" s="2">
         <v>44264.6266898148</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C70" s="2">
         <v>44264.6266898148</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C71" s="2">
         <v>44264.6266898148</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C72" s="2">
         <v>44264.6266898148</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C73" s="2">
         <v>44264.6266898148</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C74" s="2">
         <v>44264.6266898148</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C75" s="2">
         <v>44264.6266898148</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C76" s="2">
         <v>44264.6266898148</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C77" s="2">
         <v>44264.6266898148</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C78" s="2">
         <v>44264.6266898148</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C79" s="2">
         <v>44264.6266898148</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C80" s="2">
         <v>44264.6266898148</v>
+      </c>
+      <c r="D80">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
